--- a/material.xlsx
+++ b/material.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="720" yWindow="360" windowWidth="17955" windowHeight="11340"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="material" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,14 @@
   </si>
   <si>
     <t>copper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,39 +391,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
     </row>
